--- a/Import Python/Report.xlsx
+++ b/Import Python/Report.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAM\Documents\Vu Quang Nguyen\VACP\Import Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C20DF8-8837-4AD0-83A1-31C009A6E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFEB168-AB74-4E4C-834F-281B51C07937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$T$26</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +64,9 @@
     <t>Nhà cung cấp</t>
   </si>
   <si>
+    <t>Đơn giá nhập</t>
+  </si>
+  <si>
     <t>Tổng nhập</t>
   </si>
   <si>
@@ -92,6 +82,21 @@
     <t>Giá mặc cả USD</t>
   </si>
   <si>
+    <t>Giá vốn mới</t>
+  </si>
+  <si>
+    <t>T21VG04F</t>
+  </si>
+  <si>
+    <t>48815-0K010</t>
+  </si>
+  <si>
+    <t>Stabilizer shaft rubber HILUX VIGO,INNOVA KUN40 FR</t>
+  </si>
+  <si>
+    <t>NCC-THAILAND</t>
+  </si>
+  <si>
     <t>T24NC50WB</t>
   </si>
   <si>
@@ -101,16 +106,112 @@
     <t>Low. arm bushing VIOS NCP150,YARIS NSP152,SIENTA NSP170,ETIOS BIG</t>
   </si>
   <si>
+    <t>NK-CHI</t>
+  </si>
+  <si>
+    <t>T24VG4WS</t>
+  </si>
+  <si>
+    <t>48654-0K040</t>
+  </si>
+  <si>
+    <t>Low. arm bushing  HILUX VIGO 4WD,FORTUNER SMALL</t>
+  </si>
+  <si>
+    <t>T24ZE121B</t>
+  </si>
+  <si>
+    <t>48655-12170</t>
+  </si>
+  <si>
+    <t>Low. arm bushing ALTIS ZZE121,122,141 BIG</t>
+  </si>
+  <si>
     <t>HTAUTOHN</t>
   </si>
   <si>
-    <t>T21VG04F</t>
-  </si>
-  <si>
-    <t>48815-0K010</t>
-  </si>
-  <si>
-    <t>Stabilizer shaft rubber HILUX VIGO,INNOVA KUN40 FR</t>
+    <t>T18ZE1210</t>
+  </si>
+  <si>
+    <t>45535-52050</t>
+  </si>
+  <si>
+    <t>Steering gear boot ALTIS ZZE121,122</t>
+  </si>
+  <si>
+    <t>T27VG04FL</t>
+  </si>
+  <si>
+    <t>48810-0K010</t>
+  </si>
+  <si>
+    <t>Link assy HILUX VIGO 4WD,REVO FR LH</t>
+  </si>
+  <si>
+    <t>NCC-CHIRATL</t>
+  </si>
+  <si>
+    <t>T20VG0EL</t>
+  </si>
+  <si>
+    <t>90385-T0001</t>
+  </si>
+  <si>
+    <t>Spring shackle rubber HILUX VIGO,TGN16 RE,LONG</t>
+  </si>
+  <si>
+    <t>T10VG02B</t>
+  </si>
+  <si>
+    <t>12305-0C011</t>
+  </si>
+  <si>
+    <t>Engine mounting FORTUNER VIGO (B) LH-RH</t>
+  </si>
+  <si>
+    <t>T30UZ30F</t>
+  </si>
+  <si>
+    <t>47731-60030</t>
+  </si>
+  <si>
+    <t>Cylinder piston UZJ100 FR</t>
+  </si>
+  <si>
+    <t>T18VG0R0</t>
+  </si>
+  <si>
+    <t>45535-0K010</t>
+  </si>
+  <si>
+    <t>Steering gear boot HILUX VIGO RH</t>
+  </si>
+  <si>
+    <t>T25C04B</t>
+  </si>
+  <si>
+    <t>48725-48020B</t>
+  </si>
+  <si>
+    <t>Suspension bush CAMRY (2002) ACV30,(2007) ACV40,(2012) ACV51,ASV50,AVV50 BIG</t>
+  </si>
+  <si>
+    <t>D2441XW</t>
+  </si>
+  <si>
+    <t>UH74 34 450</t>
+  </si>
+  <si>
+    <t>Low. arm bushing FIGHTER,RANGER (4WD) SMALL</t>
+  </si>
+  <si>
+    <t>T24NC42WB</t>
+  </si>
+  <si>
+    <t>48655-0D060</t>
+  </si>
+  <si>
+    <t>Low. arm bushing VIOS,ECHO,YARIS,VITZ BIG</t>
   </si>
   <si>
     <t>T24C02WB</t>
@@ -122,70 +223,76 @@
     <t>Low. arm bushing CAMRY SXV10 (2.2 CC) (1994) BIG</t>
   </si>
   <si>
-    <t>T20VG0EL</t>
-  </si>
-  <si>
-    <t>90385-T0001</t>
-  </si>
-  <si>
-    <t>Spring shackle rubber HILUX VIGO,TGN16 RE,LONG</t>
-  </si>
-  <si>
-    <t>T24ZE121B</t>
-  </si>
-  <si>
-    <t>48655-12170</t>
-  </si>
-  <si>
-    <t>Low. arm bushing ALTIS ZZE121,122,141 BIG</t>
-  </si>
-  <si>
-    <t>T30UZ30F</t>
-  </si>
-  <si>
-    <t>47731-60030</t>
-  </si>
-  <si>
-    <t>Cylinder piston UZJ100 FR</t>
-  </si>
-  <si>
-    <t>NCC-CHIRATL</t>
-  </si>
-  <si>
-    <t>T25C04B</t>
-  </si>
-  <si>
-    <t>48725-48020B</t>
-  </si>
-  <si>
-    <t>Suspension bush CAMRY (2002) ACV30,(2007) ACV40,(2012) ACV51,ASV50,AVV50 BIG</t>
-  </si>
-  <si>
-    <t>T27VG04FL</t>
-  </si>
-  <si>
-    <t>48810-0K010</t>
-  </si>
-  <si>
-    <t>Link assy HILUX VIGO 4WD,REVO FR LH</t>
-  </si>
-  <si>
-    <t>T10VG02B</t>
-  </si>
-  <si>
-    <t>12305-0C011</t>
-  </si>
-  <si>
-    <t>Engine mounting FORTUNER VIGO (B) LH-RH</t>
-  </si>
-  <si>
-    <t>T18ZE1210</t>
-  </si>
-  <si>
-    <t>45535-52050</t>
-  </si>
-  <si>
-    <t>Steering gear boot ALTIS ZZE121,122</t>
+    <t>T24S01WS</t>
+  </si>
+  <si>
+    <t>48654-16110</t>
+  </si>
+  <si>
+    <t>Low. arm bushing SOLUNA SMALL</t>
+  </si>
+  <si>
+    <t>T24NC93WB</t>
+  </si>
+  <si>
+    <t>48655-0D051</t>
+  </si>
+  <si>
+    <t>Low. arm bushing VIOS NCP93,YARIS NCP91</t>
+  </si>
+  <si>
+    <t>D24BT50W</t>
+  </si>
+  <si>
+    <t>UC3C 34 460A</t>
+  </si>
+  <si>
+    <t>Low. arm bushing BT50 PRO 2WD,4WD</t>
+  </si>
+  <si>
+    <t>T25VG041</t>
+  </si>
+  <si>
+    <t>48706-0K030</t>
+  </si>
+  <si>
+    <t>Suspension bush FORTUNER (2005,2015,2016),INNOVA KUN40</t>
+  </si>
+  <si>
+    <t>T13C05F</t>
+  </si>
+  <si>
+    <t>48609-06230</t>
+  </si>
+  <si>
+    <t>Shock absorber mounting CAMRY (2007) ACV40,(2012) ACV50,ACV51,ASV50,AVV50 FR</t>
+  </si>
+  <si>
+    <t>T17VG04IZ</t>
+  </si>
+  <si>
+    <t>43448-0K020</t>
+  </si>
+  <si>
+    <t>Drive shaft boot HILUX VIGO,FORTUNER,REVO 4WD</t>
+  </si>
+  <si>
+    <t>T2464PB</t>
+  </si>
+  <si>
+    <t>48635-26010</t>
+  </si>
+  <si>
+    <t>Up. arm bushing LH60,LH112,KDH200,TIGER 4WD</t>
+  </si>
+  <si>
+    <t>T25DJ2150</t>
+  </si>
+  <si>
+    <t>48706-60060</t>
+  </si>
+  <si>
+    <t>Suspension bush PRADO KDJ125 RE</t>
   </si>
   <si>
     <t>T13NC91F</t>
@@ -195,117 +302,6 @@
   </si>
   <si>
     <t>Shock absorber mounting YARIS NCP91,93,VIOS FR</t>
-  </si>
-  <si>
-    <t>D2441XW</t>
-  </si>
-  <si>
-    <t>UH74 34 450</t>
-  </si>
-  <si>
-    <t>Low. arm bushing FIGHTER,RANGER (4WD) SMALL</t>
-  </si>
-  <si>
-    <t>T24VG4WS</t>
-  </si>
-  <si>
-    <t>48654-0K040</t>
-  </si>
-  <si>
-    <t>Low. arm bushing  HILUX VIGO 4WD,FORTUNER SMALL</t>
-  </si>
-  <si>
-    <t>T24NC42WB</t>
-  </si>
-  <si>
-    <t>48655-0D060</t>
-  </si>
-  <si>
-    <t>Low. arm bushing VIOS,ECHO,YARIS,VITZ BIG</t>
-  </si>
-  <si>
-    <t>T24S01WS</t>
-  </si>
-  <si>
-    <t>48654-16110</t>
-  </si>
-  <si>
-    <t>Low. arm bushing SOLUNA SMALL</t>
-  </si>
-  <si>
-    <t>T25VG041</t>
-  </si>
-  <si>
-    <t>48706-0K030</t>
-  </si>
-  <si>
-    <t>Suspension bush FORTUNER (2005,2015,2016),INNOVA KUN40</t>
-  </si>
-  <si>
-    <t>NK-CHI</t>
-  </si>
-  <si>
-    <t>T24NC93WB</t>
-  </si>
-  <si>
-    <t>48655-0D051</t>
-  </si>
-  <si>
-    <t>Low. arm bushing VIOS NCP93,YARIS NCP91</t>
-  </si>
-  <si>
-    <t>D24BT50W</t>
-  </si>
-  <si>
-    <t>UC3C 34 460A</t>
-  </si>
-  <si>
-    <t>Low. arm bushing BT50 PRO 2WD,4WD</t>
-  </si>
-  <si>
-    <t>T17VG04IZ</t>
-  </si>
-  <si>
-    <t>43448-0K020</t>
-  </si>
-  <si>
-    <t>Drive shaft boot HILUX VIGO,FORTUNER,REVO 4WD</t>
-  </si>
-  <si>
-    <t>T18VG0R0</t>
-  </si>
-  <si>
-    <t>45535-0K010</t>
-  </si>
-  <si>
-    <t>Steering gear boot HILUX VIGO RH</t>
-  </si>
-  <si>
-    <t>T2464PB</t>
-  </si>
-  <si>
-    <t>48635-26010</t>
-  </si>
-  <si>
-    <t>Up. arm bushing LH60,LH112,KDH200,TIGER 4WD</t>
-  </si>
-  <si>
-    <t>T13C05F</t>
-  </si>
-  <si>
-    <t>48609-06230</t>
-  </si>
-  <si>
-    <t>Shock absorber mounting CAMRY (2007) ACV40,(2012) ACV50,ACV51,ASV50,AVV50 FR</t>
-  </si>
-  <si>
-    <t>T25DJ2150</t>
-  </si>
-  <si>
-    <t>48706-60060</t>
-  </si>
-  <si>
-    <t>Suspension bush PRADO KDJ125 RE</t>
   </si>
   <si>
     <t>T25C04E0Z</t>
@@ -330,11 +326,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,20 +342,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -387,26 +381,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -707,37 +696,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="78" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,25 +747,25 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -789,583 +780,643 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>3000</v>
-      </c>
-      <c r="H2">
-        <v>6.03</v>
-      </c>
-      <c r="I2" s="5">
-        <v>163534</v>
-      </c>
-      <c r="J2" s="5">
-        <v>135267</v>
+        <v>2004</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="I2">
+        <v>36070</v>
+      </c>
+      <c r="J2">
+        <v>32514</v>
       </c>
       <c r="K2">
-        <v>0.21</v>
-      </c>
-      <c r="L2" s="5">
-        <v>188000</v>
-      </c>
-      <c r="M2" s="5">
-        <v>165000</v>
-      </c>
-      <c r="N2" s="3">
-        <v>44131</v>
+        <v>0.11</v>
+      </c>
+      <c r="L2">
+        <v>50000</v>
+      </c>
+      <c r="M2">
+        <v>40000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44712</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>28390</v>
       </c>
       <c r="Q2">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="R2">
+        <v>236</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="S2" s="5">
-        <v>128504</v>
-      </c>
       <c r="T2">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>23867.7</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="V2">
+        <v>23760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G3">
-        <v>2004</v>
-      </c>
-      <c r="H3">
-        <v>1.33</v>
-      </c>
-      <c r="I3" s="5">
-        <v>36070</v>
-      </c>
-      <c r="J3" s="5">
-        <v>32514</v>
+        <v>3000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="I3">
+        <v>163534</v>
+      </c>
+      <c r="J3">
+        <v>135267</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
-      </c>
-      <c r="L3" s="5">
-        <v>50000</v>
-      </c>
-      <c r="M3" s="5">
-        <v>40000</v>
-      </c>
-      <c r="N3" s="3">
-        <v>43950</v>
+        <v>0.21</v>
+      </c>
+      <c r="L3">
+        <v>188000</v>
+      </c>
+      <c r="M3">
+        <v>165000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44694</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P3">
+        <v>124956</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="Q3">
-        <v>236</v>
-      </c>
       <c r="R3">
+        <v>232</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="S3" s="5">
-        <v>30888</v>
-      </c>
       <c r="T3">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105051.5</v>
+      </c>
+      <c r="U3" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="V3">
+        <v>105120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I4">
+        <v>173568</v>
+      </c>
+      <c r="J4">
+        <v>144213</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <v>210000</v>
+      </c>
+      <c r="M4">
+        <v>160000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>44694</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>108</v>
-      </c>
-      <c r="G4">
-        <v>54</v>
-      </c>
-      <c r="H4">
-        <v>3.15</v>
-      </c>
-      <c r="I4" s="5">
-        <v>85428</v>
-      </c>
-      <c r="J4" s="5">
-        <v>98771</v>
-      </c>
-      <c r="K4">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="L4" s="5">
-        <v>150000</v>
-      </c>
-      <c r="M4" s="5">
-        <v>140000</v>
-      </c>
-      <c r="N4" s="3">
-        <v>43908</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
       <c r="P4">
+        <v>132678</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>24</v>
-      </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>93832</v>
+        <v>197</v>
+      </c>
+      <c r="S4">
+        <v>83</v>
       </c>
       <c r="T4">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>111543.45</v>
+      </c>
+      <c r="U4" s="4">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="V4">
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>0.46</v>
-      </c>
-      <c r="I5" s="5">
-        <v>12475</v>
-      </c>
-      <c r="J5" s="5">
-        <v>10496</v>
+        <v>1000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="I5">
+        <v>117701</v>
+      </c>
+      <c r="J5">
+        <v>103401</v>
       </c>
       <c r="K5">
-        <v>0.19</v>
-      </c>
-      <c r="L5" s="5">
-        <v>30000</v>
-      </c>
-      <c r="M5" s="5">
-        <v>30000</v>
-      </c>
-      <c r="N5" s="3">
-        <v>43956</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L5">
+        <v>158000</v>
+      </c>
+      <c r="M5">
+        <v>110000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44385</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P5">
-        <v>40</v>
+        <v>98000</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="R5">
+        <v>46</v>
+      </c>
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="S5" s="5">
-        <v>9971</v>
-      </c>
       <c r="T5">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>82389.38</v>
+      </c>
+      <c r="U5" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="V5">
+        <v>82320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>4.34</v>
-      </c>
-      <c r="I6" s="5">
-        <v>117701</v>
-      </c>
-      <c r="J6" s="5">
-        <v>103401</v>
+        <v>200</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="I6">
+        <v>88140</v>
+      </c>
+      <c r="J6">
+        <v>84485</v>
       </c>
       <c r="K6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L6" s="5">
-        <v>158000</v>
-      </c>
-      <c r="M6" s="5">
-        <v>110000</v>
-      </c>
-      <c r="N6" s="3">
-        <v>44106</v>
+        <v>0.04</v>
+      </c>
+      <c r="L6">
+        <v>100000</v>
+      </c>
+      <c r="M6">
+        <v>90000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>44277</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P6">
-        <v>30</v>
+        <v>80000</v>
       </c>
       <c r="Q6">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="R6">
+        <v>17</v>
+      </c>
+      <c r="S6">
         <v>0</v>
       </c>
-      <c r="S6" s="5">
-        <v>98231</v>
-      </c>
       <c r="T6">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>67256.639999999999</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="V6">
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>500</v>
       </c>
-      <c r="H7">
-        <v>6.31</v>
-      </c>
-      <c r="I7" s="5">
-        <v>171127</v>
-      </c>
-      <c r="J7" s="5">
-        <v>127262</v>
+      <c r="H7" s="4">
+        <v>9.83</v>
+      </c>
+      <c r="I7">
+        <v>266590</v>
+      </c>
+      <c r="J7">
+        <v>266312</v>
       </c>
       <c r="K7">
-        <v>0.34</v>
-      </c>
-      <c r="L7" s="5">
-        <v>136000</v>
-      </c>
-      <c r="M7" s="5">
-        <v>136000</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>300000</v>
+      </c>
+      <c r="M7">
+        <v>300000</v>
+      </c>
+      <c r="N7" s="2">
         <v>44375</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P7">
-        <v>30</v>
+        <v>215012.42</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
         <v>0</v>
       </c>
-      <c r="S7" s="5">
-        <v>120899</v>
-      </c>
       <c r="T7">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>180762.65</v>
+      </c>
+      <c r="U7" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="V7">
+        <v>180720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="G8">
-        <v>504</v>
-      </c>
-      <c r="H8">
-        <v>2.93</v>
-      </c>
-      <c r="I8" s="5">
-        <v>79462</v>
-      </c>
-      <c r="J8" s="5">
-        <v>77912</v>
+        <v>100</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="I8">
+        <v>12475</v>
+      </c>
+      <c r="J8">
+        <v>10496</v>
       </c>
       <c r="K8">
-        <v>0.02</v>
-      </c>
-      <c r="L8" s="5">
-        <v>97000</v>
-      </c>
-      <c r="M8" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44015</v>
+        <v>0.19</v>
+      </c>
+      <c r="L8">
+        <v>30000</v>
+      </c>
+      <c r="M8">
+        <v>30000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>44555</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P8">
+        <v>10000</v>
+      </c>
+      <c r="Q8">
         <v>30</v>
       </c>
-      <c r="Q8">
-        <v>44</v>
-      </c>
       <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
         <v>0</v>
       </c>
-      <c r="S8" s="5">
-        <v>74016</v>
-      </c>
       <c r="T8">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8407.08</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="V8">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>500</v>
-      </c>
-      <c r="H9">
-        <v>9.83</v>
-      </c>
-      <c r="I9" s="5">
-        <v>266590</v>
-      </c>
-      <c r="J9" s="5">
-        <v>266312</v>
+        <v>300</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7.27</v>
+      </c>
+      <c r="I9">
+        <v>197162</v>
+      </c>
+      <c r="J9">
+        <v>162124</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>300000</v>
-      </c>
-      <c r="M9" s="5">
-        <v>300000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>43994</v>
+        <v>0.22</v>
+      </c>
+      <c r="L9">
+        <v>220000</v>
+      </c>
+      <c r="M9">
+        <v>220000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>44543</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P9">
-        <v>20</v>
+        <v>152000</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>252996</v>
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>10.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>127787.61</v>
+      </c>
+      <c r="U9" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="V9">
+        <v>127680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G10">
-        <v>300</v>
-      </c>
-      <c r="H10">
-        <v>7.27</v>
-      </c>
-      <c r="I10" s="5">
-        <v>197162</v>
-      </c>
-      <c r="J10" s="5">
-        <v>162124</v>
+        <v>500</v>
+      </c>
+      <c r="H10" s="4">
+        <v>6.31</v>
+      </c>
+      <c r="I10">
+        <v>171127</v>
+      </c>
+      <c r="J10">
+        <v>127262</v>
       </c>
       <c r="K10">
-        <v>0.22</v>
-      </c>
-      <c r="L10" s="5">
-        <v>220000</v>
-      </c>
-      <c r="M10" s="5">
-        <v>220000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>44112</v>
+        <v>0.34</v>
+      </c>
+      <c r="L10">
+        <v>136000</v>
+      </c>
+      <c r="M10">
+        <v>136000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>44375</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>100339.17</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5">
-        <v>154018</v>
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>84355.94</v>
+      </c>
+      <c r="U10" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="V10">
+        <v>84240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1374,122 +1425,134 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>3.25</v>
-      </c>
-      <c r="I11" s="5">
-        <v>88140</v>
-      </c>
-      <c r="J11" s="5">
-        <v>84485</v>
+        <v>300</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="I11">
+        <v>93022</v>
+      </c>
+      <c r="J11">
+        <v>81495</v>
       </c>
       <c r="K11">
-        <v>0.04</v>
-      </c>
-      <c r="L11" s="5">
-        <v>100000</v>
-      </c>
-      <c r="M11" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N11" s="3">
-        <v>44131</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L11">
+        <v>130000</v>
+      </c>
+      <c r="M11">
+        <v>95000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>44694</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>77922</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="R11">
+        <v>79</v>
+      </c>
+      <c r="S11">
         <v>0</v>
       </c>
-      <c r="S11" s="5">
-        <v>80261</v>
-      </c>
       <c r="T11">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>65509.65</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="V11">
+        <v>65520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G12">
-        <v>400</v>
-      </c>
-      <c r="H12">
-        <v>8.41</v>
-      </c>
-      <c r="I12" s="5">
-        <v>228079</v>
-      </c>
-      <c r="J12" s="5">
-        <v>183586</v>
+        <v>504</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="I12">
+        <v>79462</v>
+      </c>
+      <c r="J12">
+        <v>77912</v>
       </c>
       <c r="K12">
-        <v>0.24</v>
-      </c>
-      <c r="L12" s="5">
-        <v>204000</v>
-      </c>
-      <c r="M12" s="5">
-        <v>195000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>44168</v>
+        <v>0.02</v>
+      </c>
+      <c r="L12">
+        <v>97000</v>
+      </c>
+      <c r="M12">
+        <v>90000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>44799</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P12">
+        <v>88270</v>
+      </c>
+      <c r="Q12">
         <v>20</v>
       </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
       <c r="R12">
+        <v>44</v>
+      </c>
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="S12" s="5">
-        <v>174407</v>
-      </c>
       <c r="T12">
-        <v>7.27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>74209.289999999994</v>
+      </c>
+      <c r="U12" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="V12">
+        <v>74160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1500,58 +1563,64 @@
       <c r="G13">
         <v>200</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>2.33</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>63190</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>58040</v>
       </c>
       <c r="K13">
         <v>0.09</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>80000</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>75000</v>
       </c>
-      <c r="N13" s="3">
-        <v>43913</v>
+      <c r="N13" s="2">
+        <v>44259</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P13">
-        <v>20</v>
+        <v>55000</v>
       </c>
       <c r="Q13">
         <v>20</v>
       </c>
       <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
         <v>9</v>
       </c>
-      <c r="S13" s="5">
-        <v>55138</v>
-      </c>
       <c r="T13">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>46238.94</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="V13">
+        <v>46320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -1560,122 +1629,134 @@
         <v>72</v>
       </c>
       <c r="G14">
-        <v>500</v>
-      </c>
-      <c r="H14">
-        <v>6.4</v>
-      </c>
-      <c r="I14" s="5">
-        <v>173568</v>
-      </c>
-      <c r="J14" s="5">
-        <v>144213</v>
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3.79</v>
+      </c>
+      <c r="I14">
+        <v>102785</v>
+      </c>
+      <c r="J14">
+        <v>90730</v>
       </c>
       <c r="K14">
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="5">
-        <v>210000</v>
-      </c>
-      <c r="M14" s="5">
-        <v>160000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>43925</v>
+        <v>0.13</v>
+      </c>
+      <c r="L14">
+        <v>110000</v>
+      </c>
+      <c r="M14">
+        <v>110000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>44385</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P14">
+        <v>86000</v>
+      </c>
+      <c r="Q14">
         <v>20</v>
       </c>
-      <c r="Q14">
-        <v>197</v>
-      </c>
       <c r="R14">
-        <v>83</v>
-      </c>
-      <c r="S14" s="5">
-        <v>137002</v>
+        <v>12</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>72300.88</v>
+      </c>
+      <c r="U14" s="4">
+        <v>3.01</v>
+      </c>
+      <c r="V14">
+        <v>72240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>3.79</v>
-      </c>
-      <c r="I15" s="5">
-        <v>102785</v>
-      </c>
-      <c r="J15" s="5">
-        <v>90730</v>
+        <v>54</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="I15">
+        <v>85428</v>
+      </c>
+      <c r="J15">
+        <v>98771</v>
       </c>
       <c r="K15">
-        <v>0.13</v>
-      </c>
-      <c r="L15" s="5">
-        <v>110000</v>
-      </c>
-      <c r="M15" s="5">
-        <v>110000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>43985</v>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L15">
+        <v>150000</v>
+      </c>
+      <c r="M15">
+        <v>140000</v>
+      </c>
+      <c r="N15" s="2">
+        <v>44694</v>
       </c>
       <c r="O15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P15">
-        <v>20</v>
+        <v>94068</v>
       </c>
       <c r="Q15">
         <v>12</v>
       </c>
       <c r="R15">
-        <v>4</v>
-      </c>
-      <c r="S15" s="5">
-        <v>86194</v>
+        <v>24</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>79083.72</v>
+      </c>
+      <c r="U15" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="V15">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1686,171 +1767,189 @@
       <c r="G16">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>2.61</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <v>70783</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>61716</v>
       </c>
       <c r="K16">
         <v>0.15</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16">
         <v>81000</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>81000</v>
       </c>
-      <c r="N16" s="3">
-        <v>44001</v>
+      <c r="N16" s="2">
+        <v>44202</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P16">
-        <v>20</v>
+        <v>58000</v>
       </c>
       <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
         <v>4</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>16</v>
       </c>
-      <c r="S16" s="5">
-        <v>58630</v>
-      </c>
       <c r="T16">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>48761.06</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V16">
+        <v>48720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>72</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="I17">
+        <v>117701</v>
+      </c>
+      <c r="J17">
+        <v>100138</v>
+      </c>
+      <c r="K17">
+        <v>0.18</v>
+      </c>
+      <c r="L17">
+        <v>121000</v>
+      </c>
+      <c r="M17">
+        <v>110000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>44397</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17">
+        <v>98000</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>180</v>
-      </c>
-      <c r="G17">
-        <v>200</v>
-      </c>
-      <c r="H17">
-        <v>3.47</v>
-      </c>
-      <c r="I17" s="5">
-        <v>94106</v>
-      </c>
-      <c r="J17" s="5">
-        <v>71308</v>
-      </c>
-      <c r="K17">
-        <v>0.32</v>
-      </c>
-      <c r="L17" s="5">
-        <v>105000</v>
-      </c>
-      <c r="M17" s="5">
-        <v>96000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>44694</v>
-      </c>
-      <c r="O17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
       <c r="R17">
-        <v>8</v>
-      </c>
-      <c r="S17" s="5">
-        <v>67743</v>
+        <v>102</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>82389.38</v>
+      </c>
+      <c r="U17" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="V17">
+        <v>82320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>300</v>
-      </c>
-      <c r="H18">
-        <v>4.34</v>
-      </c>
-      <c r="I18" s="5">
-        <v>117701</v>
-      </c>
-      <c r="J18" s="5">
-        <v>100138</v>
+        <v>200</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="I18">
+        <v>88140</v>
+      </c>
+      <c r="J18">
+        <v>84485</v>
       </c>
       <c r="K18">
-        <v>0.18</v>
-      </c>
-      <c r="L18" s="5">
-        <v>121000</v>
-      </c>
-      <c r="M18" s="5">
-        <v>110000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>44397</v>
+        <v>0.04</v>
+      </c>
+      <c r="L18">
+        <v>100000</v>
+      </c>
+      <c r="M18">
+        <v>90000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>44277</v>
       </c>
       <c r="O18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P18">
+        <v>80000</v>
+      </c>
+      <c r="Q18">
         <v>10</v>
       </c>
-      <c r="Q18">
-        <v>102</v>
-      </c>
       <c r="R18">
-        <v>6</v>
-      </c>
-      <c r="S18" s="5">
-        <v>95131</v>
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>67256.639999999999</v>
+      </c>
+      <c r="U18" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="V18">
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1872,47 +1971,53 @@
       <c r="G19">
         <v>500</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>7.04</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19">
         <v>190925</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>164299</v>
       </c>
       <c r="K19">
         <v>0.16</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19">
         <v>210000</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19">
         <v>200000</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>44543</v>
       </c>
       <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19">
+        <v>151000</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
         <v>22</v>
       </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="Q19">
-        <v>22</v>
-      </c>
-      <c r="R19">
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="S19" s="5">
-        <v>156084</v>
-      </c>
       <c r="T19">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>126946.9</v>
+      </c>
+      <c r="U19" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="V19">
+        <v>126960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1926,55 +2031,61 @@
         <v>78</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>3.61</v>
-      </c>
-      <c r="I20" s="5">
-        <v>97903</v>
-      </c>
-      <c r="J20" s="5">
-        <v>84876</v>
+        <v>200</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3.47</v>
+      </c>
+      <c r="I20">
+        <v>94106</v>
+      </c>
+      <c r="J20">
+        <v>71308</v>
       </c>
       <c r="K20">
-        <v>0.15</v>
-      </c>
-      <c r="L20" s="5">
-        <v>110000</v>
-      </c>
-      <c r="M20" s="5">
-        <v>110000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>44543</v>
+        <v>0.32</v>
+      </c>
+      <c r="L20">
+        <v>105000</v>
+      </c>
+      <c r="M20">
+        <v>96000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>44694</v>
       </c>
       <c r="O20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P20">
+        <v>70200</v>
+      </c>
+      <c r="Q20">
         <v>10</v>
       </c>
-      <c r="Q20">
-        <v>16</v>
-      </c>
       <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>80632</v>
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>8</v>
       </c>
       <c r="T20">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>59017.7</v>
+      </c>
+      <c r="U20" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="V20">
+        <v>59040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1988,55 +2099,61 @@
         <v>81</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>300</v>
-      </c>
-      <c r="H21">
-        <v>3.43</v>
-      </c>
-      <c r="I21" s="5">
-        <v>93022</v>
-      </c>
-      <c r="J21" s="5">
-        <v>81495</v>
+        <v>100</v>
+      </c>
+      <c r="H21" s="4">
+        <v>14.54</v>
+      </c>
+      <c r="I21">
+        <v>394325</v>
+      </c>
+      <c r="J21">
+        <v>313286</v>
       </c>
       <c r="K21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L21" s="5">
-        <v>130000</v>
-      </c>
-      <c r="M21" s="5">
-        <v>95000</v>
-      </c>
-      <c r="N21" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="L21">
+        <v>370000</v>
+      </c>
+      <c r="M21">
+        <v>370000</v>
+      </c>
+      <c r="N21" s="2">
         <v>44543</v>
       </c>
       <c r="O21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P21">
+        <v>297000</v>
+      </c>
+      <c r="Q21">
         <v>10</v>
       </c>
-      <c r="Q21">
-        <v>79</v>
-      </c>
       <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
         <v>0</v>
       </c>
-      <c r="S21" s="5">
-        <v>77420</v>
-      </c>
       <c r="T21">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>249690.27</v>
+      </c>
+      <c r="U21" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="V21">
+        <v>249600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2050,304 +2167,469 @@
         <v>84</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G22">
-        <v>500</v>
-      </c>
-      <c r="H22">
-        <v>4.62</v>
-      </c>
-      <c r="I22" s="5">
-        <v>125294</v>
-      </c>
-      <c r="J22" s="5">
-        <v>104576</v>
+        <v>50</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="I22">
+        <v>97903</v>
+      </c>
+      <c r="J22">
+        <v>84876</v>
       </c>
       <c r="K22">
-        <v>0.2</v>
-      </c>
-      <c r="L22" s="5">
-        <v>135000</v>
-      </c>
-      <c r="M22" s="5">
-        <v>135000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>44015</v>
+        <v>0.15</v>
+      </c>
+      <c r="L22">
+        <v>110000</v>
+      </c>
+      <c r="M22">
+        <v>110000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>44543</v>
       </c>
       <c r="O22" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>78000</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R22">
+        <v>16</v>
+      </c>
+      <c r="S22">
         <v>0</v>
       </c>
-      <c r="S22" s="5">
-        <v>99347</v>
-      </c>
       <c r="T22">
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>65575.22</v>
+      </c>
+      <c r="U22" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="V22">
+        <v>65520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>14.54</v>
-      </c>
-      <c r="I23" s="5">
-        <v>394325</v>
-      </c>
-      <c r="J23" s="5">
-        <v>313286</v>
+        <v>1000</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="I23">
+        <v>117701</v>
+      </c>
+      <c r="J23">
+        <v>103401</v>
       </c>
       <c r="K23">
-        <v>0.26</v>
-      </c>
-      <c r="L23" s="5">
-        <v>370000</v>
-      </c>
-      <c r="M23" s="5">
-        <v>370000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>44131</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>158000</v>
+      </c>
+      <c r="M23">
+        <v>110000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>44385</v>
       </c>
       <c r="O23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>98000</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
+        <v>46</v>
+      </c>
+      <c r="S23">
         <v>0</v>
       </c>
-      <c r="S23" s="5">
-        <v>297622</v>
-      </c>
       <c r="T23">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>82389.38</v>
+      </c>
+      <c r="U23" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="V23">
+        <v>82320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <v>40</v>
-      </c>
-      <c r="H24">
-        <v>3.79</v>
-      </c>
-      <c r="I24" s="5">
-        <v>102785</v>
-      </c>
-      <c r="J24" s="5">
-        <v>97718</v>
+        <v>500</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4.62</v>
+      </c>
+      <c r="I24">
+        <v>125294</v>
+      </c>
+      <c r="J24">
+        <v>104576</v>
       </c>
       <c r="K24">
-        <v>0.05</v>
-      </c>
-      <c r="L24" s="5">
-        <v>120000</v>
-      </c>
-      <c r="M24" s="5">
-        <v>120000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>44543</v>
+        <v>0.2</v>
+      </c>
+      <c r="L24">
+        <v>135000</v>
+      </c>
+      <c r="M24">
+        <v>135000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>44141</v>
       </c>
       <c r="O24" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P24">
+        <v>96000</v>
+      </c>
+      <c r="Q24">
         <v>4</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0</v>
       </c>
-      <c r="S24" s="5">
-        <v>92832</v>
-      </c>
       <c r="T24">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>80707.960000000006</v>
+      </c>
+      <c r="U24" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="V24">
+        <v>80640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>20.11</v>
-      </c>
-      <c r="I25" s="5">
-        <v>545383</v>
-      </c>
-      <c r="J25" s="5">
-        <v>395604</v>
+        <v>40</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.79</v>
+      </c>
+      <c r="I25">
+        <v>102785</v>
+      </c>
+      <c r="J25">
+        <v>97718</v>
       </c>
       <c r="K25">
-        <v>0.38</v>
-      </c>
-      <c r="L25" s="5">
-        <v>556000</v>
-      </c>
-      <c r="M25" s="5">
-        <v>556000</v>
-      </c>
-      <c r="N25" s="3">
-        <v>44021</v>
+        <v>0.05</v>
+      </c>
+      <c r="L25">
+        <v>120000</v>
+      </c>
+      <c r="M25">
+        <v>120000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>44543</v>
       </c>
       <c r="O25" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P25">
+        <v>81000</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
+      <c r="S25">
         <v>0</v>
       </c>
-      <c r="S25" s="5">
-        <v>375824</v>
-      </c>
       <c r="T25">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>68097.350000000006</v>
+      </c>
+      <c r="U25" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="V25">
+        <v>68160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>400</v>
+      </c>
+      <c r="H26" s="4">
+        <v>8.41</v>
+      </c>
+      <c r="I26">
+        <v>228079</v>
+      </c>
+      <c r="J26">
+        <v>183586</v>
+      </c>
+      <c r="K26">
+        <v>0.24</v>
+      </c>
+      <c r="L26">
+        <v>204000</v>
+      </c>
+      <c r="M26">
+        <v>195000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>44439</v>
+      </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26">
+        <v>174000</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>146283.19</v>
+      </c>
+      <c r="U26" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="V26">
+        <v>146400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4">
+        <v>20.11</v>
+      </c>
+      <c r="I27">
+        <v>545383</v>
+      </c>
+      <c r="J27">
+        <v>395604</v>
+      </c>
+      <c r="K27">
+        <v>0.38</v>
+      </c>
+      <c r="L27">
+        <v>556000</v>
+      </c>
+      <c r="M27">
+        <v>556000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>44021</v>
+      </c>
+      <c r="O27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27">
+        <v>366926</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>308477.61</v>
+      </c>
+      <c r="U27" s="4">
+        <v>12.85</v>
+      </c>
+      <c r="V27">
+        <v>308400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>12</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>80</v>
       </c>
-      <c r="H26">
+      <c r="H28" s="4">
         <v>25.14</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I28">
         <v>681797</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J28">
         <v>651000</v>
       </c>
-      <c r="K26">
+      <c r="K28">
         <v>0.05</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L28">
         <v>680000</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M28">
         <v>950000</v>
       </c>
-      <c r="N26" s="3">
-        <v>44092</v>
-      </c>
-      <c r="O26" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26">
+      <c r="N28" s="2">
+        <v>44811</v>
+      </c>
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28">
+        <v>620000</v>
+      </c>
+      <c r="Q28">
         <v>1</v>
       </c>
-      <c r="Q26">
+      <c r="R28">
         <v>1</v>
       </c>
-      <c r="R26">
+      <c r="S28">
         <v>0</v>
       </c>
-      <c r="S26" s="5">
-        <v>618450</v>
-      </c>
-      <c r="T26">
-        <v>25.77</v>
+      <c r="T28">
+        <v>521238.94</v>
+      </c>
+      <c r="U28" s="4">
+        <v>21.72</v>
+      </c>
+      <c r="V28">
+        <v>521280</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>